--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494CCC7-2B59-47F5-9370-05E59BAF8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377A576A-B3B5-49A3-B5FA-AD37DED4DBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Project</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Actiepunten Elders</t>
+  </si>
+  <si>
+    <t>2e Projectleider</t>
   </si>
 </sst>
 </file>
@@ -420,40 +423,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="9" width="25.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="10" width="25.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,33 +465,36 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377A576A-B3B5-49A3-B5FA-AD37DED4DBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3F4565-327C-46B2-9875-D6B54F9AD7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Project</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>2e Projectleider</t>
+  </si>
+  <si>
+    <t>Werkelijk resultaat</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -143,6 +146,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -423,24 +429,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="10" width="25.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="11" width="25.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -448,16 +454,17 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,28 +480,31 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3F4565-327C-46B2-9875-D6B54F9AD7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE29B95-F108-44BB-904C-465BBD824764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,43 +44,43 @@
     <t xml:space="preserve">Algemene informatie </t>
   </si>
   <si>
+    <t>Omschrijving</t>
+  </si>
+  <si>
+    <t>Actiepunten Projectleider</t>
+  </si>
+  <si>
+    <t>Projectleider</t>
+  </si>
+  <si>
+    <t>Klant</t>
+  </si>
+  <si>
+    <t>Aangepast resultaat</t>
+  </si>
+  <si>
+    <t>Actiepunten Bram</t>
+  </si>
+  <si>
+    <t>Bespreekpunten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum: </t>
+  </si>
+  <si>
+    <t>Whitelist</t>
+  </si>
+  <si>
+    <t>Actiepunten Elders</t>
+  </si>
+  <si>
+    <t>2e Projectleider</t>
+  </si>
+  <si>
+    <t>Werkelijk resultaat</t>
+  </si>
+  <si>
     <t>Verwacht resultaat</t>
-  </si>
-  <si>
-    <t>Omschrijving</t>
-  </si>
-  <si>
-    <t>Actiepunten Projectleider</t>
-  </si>
-  <si>
-    <t>Projectleider</t>
-  </si>
-  <si>
-    <t>Klant</t>
-  </si>
-  <si>
-    <t>Aangepast resultaat</t>
-  </si>
-  <si>
-    <t>Actiepunten Bram</t>
-  </si>
-  <si>
-    <t>Bespreekpunten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum: </t>
-  </si>
-  <si>
-    <t>Whitelist</t>
-  </si>
-  <si>
-    <t>Actiepunten Elders</t>
-  </si>
-  <si>
-    <t>2e Projectleider</t>
-  </si>
-  <si>
-    <t>Werkelijk resultaat</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -146,9 +146,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -432,14 +429,14 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="11" width="25.77734375" customWidth="1"/>
     <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
@@ -448,7 +445,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -469,43 +466,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE29B95-F108-44BB-904C-465BBD824764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CA5A32-3E5C-4D5C-8AB6-61B5F746E11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projecten Afsluiten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Project</t>
   </si>
@@ -429,7 +452,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,10 +504,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
@@ -503,6 +526,72 @@
       </c>
       <c r="N2" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AED606-DE23-40D2-92AD-E6B1C9E4B982}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
+        <v>Datum: 24-10-2025</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="str" cm="1">
+        <f t="array" aca="1" ref="A3" ca="1">_xlfn.LET(
+  _xlpm.Hdrs, Sheet1!$A$2:$Z$2,
+  _xlpm.Data, Sheet1!$A$3:$Z$9999,
+  _xlpm.iAPB, MATCH("Actiepunten Bram", _xlpm.Hdrs, 0),
+  _xlpm.Cond, BYRY(_xlpm.Data,,_xlpm.iAPB,
+        _xlfn.LAMBDA(_xlpm.c, _xlfn.LET(
+          _xlpm.t, LAGER(_xlpm.c),
+          SUM(--ISNUMBER(LOOKUP({"sluit";"afsluit";"afsluiten";"sluiten";"afronden";"afrond"}, _xlpm.t)))&gt;0
+        ))
+      ),
+  _xlpm.Rijen, _xlfn._xlws.FILTER(_xlpm.Data, _xlpm.Cond),
+  _xlpm.Kolommen, MATCH({"Project";"Projectleider";"Klant";"Omschrijving";"Actiepunten Bram"}, _xlpm.Hdrs, 0),
+  IFERROR(KIESKOLOMMEN(_xlpm.Rijen, _xlpm.Kolommen), "— Geen projecten gevonden —")
+)</f>
+        <v>— Geen projecten gevonden —</v>
       </c>
     </row>
   </sheetData>

--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CA5A32-3E5C-4D5C-8AB6-61B5F746E11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA6205-AC9C-40D5-8B7F-B97AF658235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Projecten Afsluiten" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,30 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Project</t>
   </si>
@@ -104,6 +82,9 @@
   </si>
   <si>
     <t>Verwacht resultaat</t>
+  </si>
+  <si>
+    <t>Projectnummer</t>
   </si>
 </sst>
 </file>
@@ -452,7 +433,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,10 +516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AED606-DE23-40D2-92AD-E6B1C9E4B982}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +533,7 @@
       </c>
       <c r="B1" s="1" t="str">
         <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
-        <v>Datum: 24-10-2025</v>
+        <v>Datum: 30-10-2025</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -560,7 +541,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -573,25 +554,6 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="str" cm="1">
-        <f t="array" aca="1" ref="A3" ca="1">_xlfn.LET(
-  _xlpm.Hdrs, Sheet1!$A$2:$Z$2,
-  _xlpm.Data, Sheet1!$A$3:$Z$9999,
-  _xlpm.iAPB, MATCH("Actiepunten Bram", _xlpm.Hdrs, 0),
-  _xlpm.Cond, BYRY(_xlpm.Data,,_xlpm.iAPB,
-        _xlfn.LAMBDA(_xlpm.c, _xlfn.LET(
-          _xlpm.t, LAGER(_xlpm.c),
-          SUM(--ISNUMBER(LOOKUP({"sluit";"afsluit";"afsluiten";"sluiten";"afronden";"afrond"}, _xlpm.t)))&gt;0
-        ))
-      ),
-  _xlpm.Rijen, _xlfn._xlws.FILTER(_xlpm.Data, _xlpm.Cond),
-  _xlpm.Kolommen, MATCH({"Project";"Projectleider";"Klant";"Omschrijving";"Actiepunten Bram"}, _xlpm.Hdrs, 0),
-  IFERROR(KIESKOLOMMEN(_xlpm.Rijen, _xlpm.Kolommen), "— Geen projecten gevonden —")
-)</f>
-        <v>— Geen projecten gevonden —</v>
       </c>
     </row>
   </sheetData>

--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA6205-AC9C-40D5-8B7F-B97AF658235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDE6E69-7AC4-4737-B57C-9F59FCD7E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Project</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Projectnummer</t>
+  </si>
+  <si>
+    <t>Finale check</t>
+  </si>
+  <si>
+    <t>Eindacties</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,19 +487,19 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -516,18 +522,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AED606-DE23-40D2-92AD-E6B1C9E4B982}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="17.77734375" customWidth="1"/>
+    <col min="1" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="6" width="35.77734375" customWidth="1"/>
+    <col min="7" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -538,8 +546,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -554,6 +564,12 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDE6E69-7AC4-4737-B57C-9F59FCD7E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D349859-7403-4301-BE4D-12F3033A029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Project</t>
   </si>
@@ -439,7 +440,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +526,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,13 +537,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="str">
+      <c r="A1" s="1" t="str">
         <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
         <v>Datum: 30-10-2025</v>
       </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -575,4 +574,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5B828A-6D1C-464C-B7F0-F1BD967ACDB7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
+        <v>Datum: 30-10-2025</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D349859-7403-4301-BE4D-12F3033A029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB1C55-7BA6-482C-8CE8-AD229B522E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Project</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Eindacties</t>
+  </si>
+  <si>
+    <t>Sluiten</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,13 +451,13 @@
     <col min="1" max="5" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="11" width="25.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="25.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -466,13 +469,14 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,18 +505,21 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -539,7 +546,7 @@
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
-        <v>Datum: 30-10-2025</v>
+        <v>Datum: 13-11-2025</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -593,7 +600,7 @@
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
-        <v>Datum: 30-10-2025</v>
+        <v>Datum: 13-11-2025</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB1C55-7BA6-482C-8CE8-AD229B522E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A206683-9AAD-4DA1-8AE3-0804E46BEF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tier1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Project</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>Projectnummer</t>
-  </si>
-  <si>
-    <t>Finale check</t>
-  </si>
-  <si>
-    <t>Eindacties</t>
   </si>
   <si>
     <t>Sluiten</t>
@@ -442,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -530,32 +524,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AED606-DE23-40D2-92AD-E6B1C9E4B982}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="6" width="35.77734375" customWidth="1"/>
-    <col min="7" max="10" width="17.77734375" customWidth="1"/>
+    <col min="1" max="7" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
-        <v>Datum: 13-11-2025</v>
+        <v>Datum: 21-11-2025</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -567,15 +556,6 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +580,7 @@
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
-        <v>Datum: 13-11-2025</v>
+        <v>Datum: 21-11-2025</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/Werkbestand Projectadministratie.xlsx
+++ b/Werkbestand Projectadministratie.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A206683-9AAD-4DA1-8AE3-0804E46BEF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2ECE7-9A52-4B50-8B14-EE3B0957689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tier1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tier2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Project</t>
   </si>
@@ -89,6 +90,9 @@
   </si>
   <si>
     <t>Sluiten</t>
+  </si>
+  <si>
+    <t>Checklist</t>
   </si>
 </sst>
 </file>
@@ -526,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AED606-DE23-40D2-92AD-E6B1C9E4B982}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,6 +568,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6E87F4-C3D2-4B05-9B9D-420AC7FB8F98}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f ca="1">"Datum: "&amp;TEXT(NOW(),"dd-mm-jjjj")</f>
+        <v>Datum: 21-11-2025</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5B828A-6D1C-464C-B7F0-F1BD967ACDB7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
